--- a/Experimental data and codes/Raw data for figures/Fig.11/Fig11d.xlsx
+++ b/Experimental data and codes/Raw data for figures/Fig.11/Fig11d.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="20356"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{253B5C71-92B8-4D38-BCBA-D68D847E5184}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -53,18 +54,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -95,7 +96,7 @@
     <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -111,7 +112,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -186,6 +187,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -221,6 +239,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -396,16 +431,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:O35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="O3" sqref="O3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:15">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -452,7 +487,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:15">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -469,7 +504,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:15">
       <c r="B3" t="s">
         <v>4</v>
       </c>
@@ -486,7 +521,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:15">
       <c r="A5">
         <v>0</v>
       </c>
@@ -533,7 +568,7 @@
         <v>3.9030000000000002E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:15">
       <c r="A6">
         <v>0.5</v>
       </c>
@@ -580,7 +615,7 @@
         <v>3.3189999999999997E-2</v>
       </c>
     </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:15">
       <c r="A7">
         <v>1</v>
       </c>
@@ -627,7 +662,7 @@
         <v>3.3399999999999999E-2</v>
       </c>
     </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:15">
       <c r="A8">
         <v>1.5</v>
       </c>
@@ -674,7 +709,7 @@
         <v>3.5479999999999998E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:15">
       <c r="A9">
         <v>2</v>
       </c>
@@ -721,7 +756,7 @@
         <v>2.8320000000000001E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:15">
       <c r="A10">
         <v>2.5</v>
       </c>
@@ -768,7 +803,7 @@
         <v>3.313E-2</v>
       </c>
     </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:15">
       <c r="A11">
         <v>3</v>
       </c>
@@ -815,7 +850,7 @@
         <v>8.0159999999999995E-2</v>
       </c>
     </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:15">
       <c r="A12">
         <v>3.5</v>
       </c>
@@ -862,7 +897,7 @@
         <v>0.10495</v>
       </c>
     </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:15">
       <c r="A13">
         <v>4</v>
       </c>
@@ -909,7 +944,7 @@
         <v>3.1649999999999998E-2</v>
       </c>
     </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:15">
       <c r="A14">
         <v>4.5</v>
       </c>
@@ -956,7 +991,7 @@
         <v>4.4260000000000001E-2</v>
       </c>
     </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:15">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1003,7 +1038,7 @@
         <v>4.9799999999999997E-2</v>
       </c>
     </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:15">
       <c r="A16">
         <v>5.5</v>
       </c>
@@ -1050,7 +1085,7 @@
         <v>2.9870000000000001E-2</v>
       </c>
     </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:15">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1097,7 +1132,7 @@
         <v>4.367E-2</v>
       </c>
     </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:15">
       <c r="A18">
         <v>6.5</v>
       </c>
@@ -1144,7 +1179,7 @@
         <v>3.2379999999999999E-2</v>
       </c>
     </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:15">
       <c r="A19">
         <v>7</v>
       </c>
@@ -1191,7 +1226,7 @@
         <v>7.8710000000000002E-2</v>
       </c>
     </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:15">
       <c r="A20">
         <v>7.5</v>
       </c>
@@ -1238,7 +1273,7 @@
         <v>3.8309999999999997E-2</v>
       </c>
     </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:15">
       <c r="A21">
         <v>8</v>
       </c>
@@ -1285,7 +1320,7 @@
         <v>4.4929999999999998E-2</v>
       </c>
     </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:15">
       <c r="A22">
         <v>8.5</v>
       </c>
@@ -1332,7 +1367,7 @@
         <v>7.8299999999999995E-2</v>
       </c>
     </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:15">
       <c r="A23">
         <v>9</v>
       </c>
@@ -1379,7 +1414,7 @@
         <v>4.8550000000000003E-2</v>
       </c>
     </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:15">
       <c r="A24">
         <v>9.5</v>
       </c>
@@ -1426,7 +1461,7 @@
         <v>2.564E-2</v>
       </c>
     </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:15">
       <c r="A25">
         <v>10</v>
       </c>
@@ -1473,7 +1508,7 @@
         <v>5.5390000000000002E-2</v>
       </c>
     </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:15">
       <c r="A26">
         <v>10.5</v>
       </c>
@@ -1520,7 +1555,7 @@
         <v>3.9399999999999998E-2</v>
       </c>
     </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:15">
       <c r="A27">
         <v>11</v>
       </c>
@@ -1567,7 +1602,7 @@
         <v>4.376E-2</v>
       </c>
     </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:15">
       <c r="A28">
         <v>11.5</v>
       </c>
@@ -1614,7 +1649,7 @@
         <v>5.8869999999999999E-2</v>
       </c>
     </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:15">
       <c r="A29">
         <v>12</v>
       </c>
@@ -1661,7 +1696,7 @@
         <v>3.8109999999999998E-2</v>
       </c>
     </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:15">
       <c r="A30">
         <v>12.5</v>
       </c>
@@ -1708,7 +1743,7 @@
         <v>3.2669999999999998E-2</v>
       </c>
     </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:15">
       <c r="A31">
         <v>13</v>
       </c>
@@ -1746,7 +1781,7 @@
         <v>6.4869999999999997E-2</v>
       </c>
     </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:15">
       <c r="A32">
         <v>13.5</v>
       </c>
@@ -1775,7 +1810,7 @@
         <v>5.8259999999999999E-2</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:9">
       <c r="A33">
         <v>14</v>
       </c>
@@ -1804,7 +1839,7 @@
         <v>2.5819999999999999E-2</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:9">
       <c r="A34">
         <v>14.5</v>
       </c>
@@ -1824,7 +1859,7 @@
         <v>1.8530000000000001E-2</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:9">
       <c r="A35">
         <v>15</v>
       </c>
